--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Sr No</t>
   </si>
@@ -35,6 +35,32 @@
 4)I agree terms &amp; condition default to Yes
 5)SIGN UP button
 6)Link to existing Login process</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website  should display Trending tags on search </t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Satish</t>
+  </si>
+  <si>
+    <t>When customer click  search button and select any trending tags then 
+1) Flat offer pop up should be displayed
+2) customer is asked to specify if its for Girl or a boy
+3) customer must be given option of Tiny preemie, Preemie and 0-3M 3-5M,6-9M and +More
+4) Apply button is available
+5) When customer complete step 2-4 then min 5 products are displayed</t>
   </si>
 </sst>
 </file>
@@ -386,19 +412,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I14:I15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +435,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -418,6 +448,37 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011B396-3E04-4189-9545-6AB94FBDA22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Sr No</t>
   </si>
@@ -62,11 +63,18 @@
 4) Apply button is available
 5) When customer complete step 2-4 then min 5 products are displayed</t>
   </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When customer scroll down to the page then Top icon should appear
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,6 +209,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +523,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
